--- a/behavioral_August2019/psychopy experiment/question_instructions.xlsx
+++ b/behavioral_August2019/psychopy experiment/question_instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>instructText</t>
   </si>
@@ -24,6 +24,10 @@
   </si>
   <si>
     <t>We realize that we did not tell you to think of these questions during the story, but please do your best to answer them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please answer as much as you remember, and be specific and concrete in your answers. It is best to try to be as faithful as possible to what the story actually said.
+</t>
   </si>
   <si>
     <t xml:space="preserve">When you have finished typing your answer, hit ‘return’ to submit your answer and move onto the next question. </t>
@@ -1324,7 +1328,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1384,7 +1388,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" ht="92.05" customHeight="1">
+    <row r="5" ht="104.05" customHeight="1">
       <c r="A5" t="s" s="7">
         <v>4</v>
       </c>
@@ -1395,8 +1399,10 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
+    <row r="6" ht="92.05" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>5</v>
+      </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1566,6 +1572,15 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
